--- a/medicine/Mort/Testament_de_Louis_XVI/Testament_de_Louis_XVI.xlsx
+++ b/medicine/Mort/Testament_de_Louis_XVI/Testament_de_Louis_XVI.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le testament de Louis XVI est un document rédigé par Louis XVI le 25 décembre 1792 durant sa captivité dans la tour du Temple. 
 Dans ce document le roi exprime la fatalité de son sort, étant persuadé de sa condamnation à mort dans son procès par la Convention nationale qui doit s'achever le lendemain. Il évoque également sa foi envers Dieu en tant que roi de droit divin, exprime ses dernières volontés à ses proches qu'il n'a pas vus depuis le début de son procès le 10 décembre et proclame son innocence des crimes dont il est accusé.
@@ -512,7 +524,9 @@
           <t>Contexte</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La perte progressive : Roi de France de droit divin depuis son sacre en 1774, Louis XVI est confronté depuis la convocation des États généraux de 1789 à la déconstruction progressive de l'État absolutiste et du concept de monarchie de droit divin comme fondement de sa souveraineté.
 Le tiers état proclamé Assemblée nationale le 17 juin 1789 vote l'abolition des privilèges durant la nuit du 4 août 1789, mettant fin à la société d'ordres de l'Ancien régime.
@@ -551,6 +565,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -576,13 +592,15 @@
           <t>Contenu du testament de Louis XVI</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sur les autres projets Wikimedia :
 Déclaration de Louis XVI à tous les Français, à sa sortie de Paris, sur Wikisource
 Louis XVI a déjà exprimé ses positions sur la Révolution dans sa Déclaration de Louis XVI à tous les Français, à sa sortie de Paris, surnommée traditionnellement le testament politique de Louis XVI.
-L'historienne Bernardine Melchior-Bonnet affirme ainsi que « ce testament de Louis XVI est plus celui d’un grand chrétien que celui d’un souverain, même déchu. On voit en effet d’emblée que la chose publique n’est plus de son ressort : seule compte pour lui l’entrée dans la vie future »[1].
+L'historienne Bernardine Melchior-Bonnet affirme ainsi que « ce testament de Louis XVI est plus celui d’un grand chrétien que celui d’un souverain, même déchu. On voit en effet d’emblée que la chose publique n’est plus de son ressort : seule compte pour lui l’entrée dans la vie future ».
 </t>
         </is>
       </c>
@@ -611,7 +629,9 @@
           <t>Extraits</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jour de Noël 1792, Louis XVI rédigea son testament. En voici quelques extraits :
 « Au nom de la très sainte Trinité, du Père et du Fils et du Saint-Esprit. Aujourd'hui vingt-cinquième jour de décembre mil sept cent quatre-vingt-douze, moi Louis, seizième du nom, roi de France, étant de puis quatre mois renfermé avec ma famille dans la Tour du Temple, à Paris, par ceux qui étaient mes sujets, et privé de toute communication quelconque, même depuis le onze du courant, avec ma famille, de plus impliqué dans un procès dont il est impossible de prévoir l'issue, à cause des passions des hommes, et dont on ne trouve aucun prétexte ni moyens dans aucune loi existante ; n'ayant que Dieu pour témoin de mes pensées et auquel je puisse m'adresser, je déclare ici, en sa présence, mes dernières volontés et sentiments. »
